--- a/S15/_members_s15.xlsx
+++ b/S15/_members_s15.xlsx
@@ -481,7 +481,7 @@
     <t xml:space="preserve">467122</t>
   </si>
   <si>
-    <t xml:space="preserve">admin</t>
+    <t xml:space="preserve">admin2</t>
   </si>
   <si>
     <t xml:space="preserve">FONG kokwei</t>
@@ -490,7 +490,7 @@
     <t xml:space="preserve">Pierre</t>
   </si>
   <si>
-    <t xml:space="preserve">facilitator</t>
+    <t xml:space="preserve">admin1</t>
   </si>
   <si>
     <t xml:space="preserve">kokwei fong</t>
@@ -741,7 +741,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F75" activeCellId="0" sqref="F75"/>
+      <selection pane="bottomLeft" activeCell="F76" activeCellId="0" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="G74" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.140469619467179</v>
+        <v>0.676445411683646</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/S15/_members_s15.xlsx
+++ b/S15/_members_s15.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Passcode</t>
   </si>
   <si>
-    <t xml:space="preserve">Email</t>
+    <t xml:space="preserve">Username</t>
   </si>
   <si>
     <t xml:space="preserve">Sabiha Gülez</t>
@@ -741,7 +741,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F76" activeCellId="0" sqref="F76"/>
+      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="G74" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.676445411683646</v>
+        <v>0.0520562998062195</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
